--- a/xlsx/第三党 (美国)_intext.xlsx
+++ b/xlsx/第三党 (美国)_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="425">
   <si>
     <t>第三党 (美国)</t>
   </si>
@@ -29,7 +29,7 @@
     <t>美利坚合众国</t>
   </si>
   <si>
-    <t>政策_政策_美國_第三党 (美国)</t>
+    <t>政策_政策_美国_第三党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美國聯邦政府</t>
+    <t>美国联邦政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%C2%B7%E5%B7%9D%E6%99%AE</t>
   </si>
   <si>
-    <t>唐納·川普</t>
+    <t>唐纳·川普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%85%B1%E5%92%8C%E5%85%9A</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%85%8B%C2%B7%E5%BD%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>麥克·彭斯</t>
+    <t>麦克·彭斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國聯邦機構列表</t>
+    <t>美国联邦机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E8%A1%8C%E6%94%BF%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
@@ -119,19 +119,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>美國眾議院</t>
+    <t>美国众议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2%E8%AD%B0%E9%95%B7</t>
   </si>
   <si>
-    <t>美國眾議院議長</t>
+    <t>美国众议院议长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E8%90%8A%E6%81%A9</t>
   </si>
   <si>
-    <t>保羅·萊恩</t>
+    <t>保罗·莱恩</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Party_leaders_of_the_United_States_House_of_Representatives</t>
@@ -149,19 +149,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>美國參議院</t>
+    <t>美国参议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E8%AD%B0%E9%99%A2%E8%87%A8%E6%99%82%E8%AD%B0%E9%95%B7</t>
   </si>
   <si>
-    <t>參議院臨時議長</t>
+    <t>参议院临时议长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%C2%B7%E5%93%88%E5%A5%87</t>
   </si>
   <si>
-    <t>奧林·哈奇</t>
+    <t>奥林·哈奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2%E6%94%BF%E5%85%9A%E9%A2%86%E8%A2%96</t>
@@ -191,13 +191,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%A0%BC%E6%B4%9B%E4%BD%9B%C2%B7%E7%BE%85%E4%BC%AF%E8%8C%A8</t>
   </si>
   <si>
-    <t>約翰·格洛佛·羅伯茨</t>
+    <t>约翰·格洛佛·罗伯茨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2%E5%A4%A7%E6%B3%95%E5%AE%98</t>
   </si>
   <si>
-    <t>美國最高法院大法官</t>
+    <t>美国最高法院大法官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>美國選舉</t>
+    <t>美国选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E9%80%89%E4%B8%BE</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E6%9C%9F%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>美國中期選舉</t>
+    <t>美国中期选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%95%B7_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>州長 (美國)</t>
+    <t>州长 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/State_legislature_(United_States)</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
-    <t>美國州份</t>
+    <t>美国州份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%A4%96%E4%BA%A4%E5%85%B3%E7%B3%BB</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9C%8B%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>Template talk-美國政治</t>
+    <t>Template talk-美国政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E9%BB%A8%E5%88%B6</t>
   </si>
   <si>
-    <t>兩黨制</t>
+    <t>两党制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E5%85%9A</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95%E9%BB%A8</t>
   </si>
   <si>
-    <t>憲法黨</t>
+    <t>宪法党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E9%BB%A8%E7%B1%8D</t>
   </si>
   <si>
-    <t>無黨籍</t>
+    <t>无党籍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%85%9A</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%8B%A2%E5%8A%9B</t>
   </si>
   <si>
-    <t>第三勢力</t>
+    <t>第三势力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%89%E4%B8%BE%E6%9D%83</t>
@@ -389,13 +389,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E9%BB%A8</t>
   </si>
   <si>
-    <t>美國的黨</t>
+    <t>美国的党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%98%E7%B5%90%E9%BB%A8</t>
   </si>
   <si>
-    <t>美國團結黨</t>
+    <t>美国团结党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E4%BA%BA%E9%AA%91%E5%A3%AB%E8%A7%A3%E6%94%BE%E5%85%9A</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%B9%B3%E8%88%87%E8%87%AA%E7%94%B1%E9%BB%A8</t>
   </si>
   <si>
-    <t>和平與自由黨</t>
+    <t>和平与自由党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%9B%E6%AD%A5%E5%8A%B3%E5%B7%A5%E5%85%9A</t>
@@ -497,13 +497,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E5%B9%B3%E7%AD%89%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>社會主義平等黨 (美國)</t>
+    <t>社会主义平等党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E5%B7%A5%E4%BA%BA%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>社會主義工人黨 (美國)</t>
+    <t>社会主义工人党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BA%BA%E4%B8%96%E7%95%8C%E5%85%9A</t>
@@ -533,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>前哥倫布時期</t>
+    <t>前哥伦布时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -557,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>美國領土變遷</t>
+    <t>美国领土变迁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
@@ -605,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯灣戰爭</t>
+    <t>波斯湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
@@ -617,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
   </si>
   <si>
-    <t>金融海嘯</t>
+    <t>金融海啸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
@@ -647,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國郵政署</t>
+    <t>美国邮政署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
@@ -665,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -677,15 +677,9 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
   </si>
   <si>
-    <t>美国众议院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
   </si>
   <si>
-    <t>美国参议院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
   </si>
   <si>
@@ -701,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國政府獨立機構</t>
+    <t>美国政府独立机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
@@ -719,13 +713,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>美國情報體系</t>
+    <t>美国情报体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>國家情報總監</t>
+    <t>国家情报总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
@@ -737,13 +731,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>國防情報局</t>
+    <t>国防情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家地理空間情報局</t>
+    <t>美国国家地理空间情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
@@ -791,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國國民警衛隊</t>
+    <t>美国国民警卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -803,7 +797,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
   </si>
   <si>
-    <t>美國第51州</t>
+    <t>美国第51州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
@@ -815,7 +809,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>紅州與藍州</t>
+    <t>红州与蓝州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Purple_America</t>
@@ -851,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>洛磯山脈</t>
+    <t>洛矶山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
@@ -863,13 +857,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國地區</t>
+    <t>美国地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
@@ -881,13 +875,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國南部</t>
+    <t>美国南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中西部</t>
+    <t>美国中西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
@@ -899,13 +893,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西北部</t>
+    <t>美国西北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西南部</t>
+    <t>美国西南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
@@ -935,9 +929,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
-    <t>美国州份</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%9F</t>
   </si>
   <si>
@@ -953,7 +944,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
   </si>
   <si>
-    <t>美國夢</t>
+    <t>美国梦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
@@ -965,13 +956,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>聯邦儲備系統</t>
+    <t>联邦储备系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>美國的工會</t>
+    <t>美国的工会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
@@ -983,13 +974,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
   </si>
   <si>
-    <t>美國國債</t>
+    <t>美国国债</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>美國交通</t>
+    <t>美国交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
@@ -1001,13 +992,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
   </si>
   <si>
-    <t>美國國道</t>
+    <t>美国国道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>州際公路系統</t>
+    <t>州际公路系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
@@ -1031,7 +1022,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>美國社會</t>
+    <t>美国社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
@@ -1103,15 +1094,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>美國社會階層</t>
+    <t>美国社会阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
   </si>
   <si>
-    <t>美国梦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
   </si>
   <si>
@@ -1121,7 +1109,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>美國LGBT權益</t>
+    <t>美国LGBT权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -1175,7 +1163,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>美國飲食文化</t>
+    <t>美国饮食文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
@@ -1211,7 +1199,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>美國電視</t>
+    <t>美国电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
@@ -1229,7 +1217,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>抽象表現主義</t>
+    <t>抽象表现主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
@@ -1265,19 +1253,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>美國槍支政治</t>
+    <t>美国枪支政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>美國槍枝暴力問題</t>
+    <t>美国枪枝暴力问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>美國醫療改革</t>
+    <t>美国医疗改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
@@ -1289,7 +1277,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
   </si>
   <si>
-    <t>美墨邊界</t>
+    <t>美墨边界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
@@ -4949,7 +4937,7 @@
         <v>219</v>
       </c>
       <c r="F114" t="s">
-        <v>220</v>
+        <v>34</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -4975,10 +4963,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F115" t="s">
-        <v>222</v>
+        <v>44</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5033,10 +5021,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F117" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5062,10 +5050,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F118" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5091,10 +5079,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F119" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5178,10 +5166,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F122" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5207,10 +5195,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F123" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5236,10 +5224,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F124" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G124" t="n">
         <v>3</v>
@@ -5265,10 +5253,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F125" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5294,10 +5282,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F126" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5323,10 +5311,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F127" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5352,10 +5340,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F128" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5381,10 +5369,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F129" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5410,10 +5398,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F130" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5439,10 +5427,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F131" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5468,10 +5456,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F132" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5497,10 +5485,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F133" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5526,10 +5514,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F134" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -5555,10 +5543,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F135" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5584,10 +5572,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F136" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5671,10 +5659,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F139" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5700,10 +5688,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F140" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5729,10 +5717,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F141" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5758,10 +5746,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F142" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5787,10 +5775,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F143" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5816,10 +5804,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F144" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5845,10 +5833,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F145" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G145" t="n">
         <v>3</v>
@@ -5874,10 +5862,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F146" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5903,10 +5891,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F147" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5932,10 +5920,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F148" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5961,10 +5949,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F149" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5990,10 +5978,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F150" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6019,10 +6007,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F151" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6048,10 +6036,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F152" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6077,10 +6065,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F153" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6106,10 +6094,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F154" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6135,10 +6123,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F155" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6164,10 +6152,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F156" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6193,10 +6181,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F157" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6222,10 +6210,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F158" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6251,10 +6239,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F159" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6280,10 +6268,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F160" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6309,10 +6297,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F161" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6338,10 +6326,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F162" t="s">
-        <v>306</v>
+        <v>90</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6367,10 +6355,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F163" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -6396,10 +6384,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F164" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6425,10 +6413,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F165" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6454,10 +6442,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F166" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6483,10 +6471,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F167" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6512,10 +6500,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F168" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6541,10 +6529,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F169" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6570,10 +6558,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F170" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6599,10 +6587,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F171" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6628,10 +6616,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F172" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6657,10 +6645,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F173" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6686,10 +6674,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F174" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6715,10 +6703,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F175" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6744,10 +6732,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F176" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6773,10 +6761,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F177" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6802,10 +6790,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F178" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G178" t="n">
         <v>14</v>
@@ -6831,10 +6819,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F179" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6860,10 +6848,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F180" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -6889,10 +6877,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F181" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6918,10 +6906,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F182" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6947,10 +6935,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F183" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6976,10 +6964,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F184" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7005,10 +6993,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F185" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7034,10 +7022,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F186" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G186" t="n">
         <v>4</v>
@@ -7063,10 +7051,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F187" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G187" t="n">
         <v>3</v>
@@ -7092,10 +7080,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F188" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7121,10 +7109,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F189" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7150,10 +7138,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F190" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7179,10 +7167,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F191" t="s">
-        <v>364</v>
+        <v>309</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7208,10 +7196,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F192" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7237,10 +7225,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F193" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7266,10 +7254,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F194" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7295,10 +7283,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F195" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7324,10 +7312,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F196" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G196" t="n">
         <v>2</v>
@@ -7353,10 +7341,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F197" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7382,10 +7370,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F198" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7411,10 +7399,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F199" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7440,10 +7428,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F200" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7469,10 +7457,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F201" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7498,10 +7486,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F202" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7527,10 +7515,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F203" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7556,10 +7544,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F204" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G204" t="n">
         <v>4</v>
@@ -7585,10 +7573,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F205" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7614,10 +7602,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F206" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7643,10 +7631,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F207" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7672,10 +7660,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F208" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7701,10 +7689,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F209" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7730,10 +7718,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F210" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7759,10 +7747,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F211" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7788,10 +7776,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F212" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -7817,10 +7805,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F213" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7846,10 +7834,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F214" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7875,10 +7863,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F215" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -7904,10 +7892,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F216" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -7933,10 +7921,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F217" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -7962,10 +7950,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F218" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -7991,10 +7979,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F219" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8020,10 +8008,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F220" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -8049,10 +8037,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F221" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8078,10 +8066,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F222" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8107,10 +8095,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F223" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
